--- a/Release/STEP-File-Analyzer-Release-Notes-5.35.xlsx
+++ b/Release/STEP-File-Analyzer-Release-Notes-5.35.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipman\Documents\Analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosel\Documents\NIST\Analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504F8033-2E7D-4BFF-A462-7923CD545D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F46F341-DB6C-4788-918D-4490E3035D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="468" windowWidth="21372" windowHeight="13212" xr2:uid="{9B3F6E53-A28B-4521-AF15-47DA96234229}"/>
+    <workbookView xWindow="1044" yWindow="444" windowWidth="19608" windowHeight="13176" xr2:uid="{9B3F6E53-A28B-4521-AF15-47DA96234229}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="9" r:id="rId1"/>
@@ -1739,9 +1739,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.nist.gov/document/sfa-release-notes</t>
-  </si>
-  <si>
     <t>5.16</t>
   </si>
   <si>
@@ -2025,15 +2022,19 @@
 Fixed bug with SFA scores for files related to the NIST test cases</t>
   </si>
   <si>
-    <t>As of 1 Jan 2026, new releases will only be available on GitHub.  https://github.com/usnistgov/SFA</t>
-  </si>
-  <si>
     <t>5.35</t>
   </si>
   <si>
     <t>Improved UUID summary worksheet
 Report identified_item name attribute on uuid_attribute entities
 Support for polyhedral b-rep geometry color</t>
+  </si>
+  <si>
+    <t>As of January 2026, new versions of SFA and up-to-date Release Notes will only be available on GitHub in the Release directory
+- click on the file name, then on the download symbol to the right</t>
+  </si>
+  <si>
+    <t>https://github.com/usnistgov/SFA/tree/master/Release</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2178,21 +2179,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2218,9 +2204,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2258,7 +2244,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2364,7 +2350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2506,7 +2492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2517,7 +2503,7 @@
   <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,20 +2521,17 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="21" t="s">
-        <v>185</v>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="21" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -2562,113 +2545,113 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="A6" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="6">
         <v>45930</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>219</v>
+      <c r="C6" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45918</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="25">
-        <v>45918</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45910</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="25">
-        <v>45910</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="9" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45895</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="25">
-        <v>45895</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45872</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="25">
-        <v>45872</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45792</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="25">
-        <v>45792</v>
-      </c>
-      <c r="C11" s="27" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45742</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="25">
-        <v>45742</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>205</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45722</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="25">
-        <v>45722</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45708</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="25">
-        <v>45708</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45694</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B15" s="25">
-        <v>45694</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2875,7 +2858,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DBC77B0F-DEA2-47BB-9B7E-03596DBEB92B}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{1A933D08-CE75-43FF-97C7-62EA1E9B3093}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2888,7 +2871,7 @@
   <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2912,68 +2895,68 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="6">
         <v>45639</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>195</v>
+      <c r="C2" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="6">
         <v>45565</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>193</v>
+      <c r="C3" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="6">
         <v>45546</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>191</v>
+      <c r="C4" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="6">
         <v>45540</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>206</v>
+      <c r="C5" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="6">
         <v>45525</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="6">
         <v>45502</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -3017,7 +3000,7 @@
         <v>45343</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="288" x14ac:dyDescent="0.3">
